--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L3_23,28_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L3_23,28_14_AVY1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 23^J28 - Abtriebswelle 14 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="13_ncr:1_{90169E0A-18A4-4BE1-985F-26552B41A11F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3D364AF-EF8E-447A-9771-84BB698E77FA}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -458,11 +452,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -706,9 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -766,6 +757,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -879,7 +882,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1073,76 +1076,76 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="1" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" customWidth="1"/>
+    <col min="6" max="7" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="37.1796875" customWidth="1"/>
     <col min="10" max="10" width="46" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="60" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="56"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1157,7 +1160,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1251,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="48" customHeight="1" thickBot="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1280,7 +1283,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1364,7 +1367,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -1430,24 +1433,26 @@
       <c r="R9" s="15"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
-        <v>1</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43">
-        <v>1</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="53" t="s">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A10" s="40">
+        <v>1</v>
+      </c>
+      <c r="B10" s="67">
+        <v>3</v>
+      </c>
+      <c r="C10" s="42">
+        <v>1</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="53">
         <v>22132</v>
       </c>
       <c r="H10" s="15"/>
@@ -1463,7 +1468,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1492,7 +1497,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1521,7 +1526,7 @@
       <c r="R12" s="15"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="28">
         <v>1</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -1605,7 +1610,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -1638,11 +1643,11 @@
       <c r="R15" s="15"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="50">
         <v>2</v>
       </c>
       <c r="C16" s="2">
@@ -1654,10 +1659,10 @@
       <c r="E16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -1671,11 +1676,13 @@
       <c r="R16" s="15"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="14">
         <v>1</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="65">
+        <v>3</v>
+      </c>
       <c r="C17" s="15">
         <v>1</v>
       </c>
@@ -1704,11 +1711,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="66">
+        <v>3</v>
+      </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
@@ -1737,7 +1746,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="43.5">
       <c r="A19" s="28">
         <v>1</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="14">
         <v>6</v>
       </c>
@@ -1854,11 +1863,11 @@
       <c r="R21" s="15"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="50">
         <v>2</v>
       </c>
       <c r="C22" s="2">
@@ -1870,10 +1879,10 @@
       <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -1887,11 +1896,13 @@
       <c r="R22" s="15"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29">
       <c r="A23" s="14">
         <v>1</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="65">
+        <v>3</v>
+      </c>
       <c r="C23" s="15">
         <v>1</v>
       </c>
@@ -1920,11 +1931,13 @@
       <c r="R23" s="15"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="66">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
@@ -1953,7 +1966,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1982,7 +1995,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="43.5">
       <c r="A26" s="28">
         <v>1</v>
       </c>
@@ -2035,7 +2048,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="14">
         <v>5</v>
       </c>
@@ -2068,7 +2081,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="14">
         <v>6</v>
       </c>
@@ -2101,11 +2114,11 @@
       <c r="R28" s="15"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="1">
         <v>7</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="50">
         <v>2</v>
       </c>
       <c r="C29" s="2">
@@ -2117,10 +2130,10 @@
       <c r="E29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -2134,11 +2147,13 @@
       <c r="R29" s="15"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="14">
         <v>1</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="65">
+        <v>3</v>
+      </c>
       <c r="C30" s="15">
         <v>1</v>
       </c>
@@ -2167,11 +2182,13 @@
       <c r="R30" s="15"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="66">
+        <v>3</v>
+      </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
@@ -2200,7 +2217,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="17"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2229,7 +2246,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="28">
         <v>1</v>
       </c>
@@ -2280,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="14">
         <v>5</v>
       </c>
@@ -2313,7 +2330,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="14">
         <v>6</v>
       </c>
@@ -2346,7 +2363,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="14">
         <v>7</v>
       </c>
@@ -2379,18 +2396,20 @@
       <c r="R36" s="15"/>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="28">
         <v>1</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="64">
+        <v>3</v>
+      </c>
       <c r="C37" s="29">
         <v>1</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="51" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="29" t="s">
@@ -2412,11 +2431,13 @@
       <c r="R37" s="15"/>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="14">
         <v>2</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="65">
+        <v>3</v>
+      </c>
       <c r="C38" s="15">
         <v>4</v>
       </c>
@@ -2445,7 +2466,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29">
       <c r="A39" s="28">
         <v>1</v>
       </c>
@@ -2496,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="14">
         <v>5</v>
       </c>
@@ -2525,7 +2546,7 @@
       <c r="R40" s="15"/>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="14">
         <v>6</v>
       </c>
@@ -2558,11 +2579,11 @@
       <c r="R41" s="15"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" thickBot="1">
       <c r="A42" s="1">
         <v>7</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="50">
         <v>2</v>
       </c>
       <c r="C42" s="2">
@@ -2574,10 +2595,10 @@
       <c r="E42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="40"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -2591,11 +2612,13 @@
       <c r="R42" s="15"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" thickBot="1">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="50">
+        <v>2</v>
+      </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
@@ -2624,7 +2647,7 @@
       <c r="R43" s="15"/>
       <c r="S43" s="17"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2653,7 +2676,7 @@
       <c r="R44" s="15"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="43.5">
       <c r="A45" s="28">
         <v>1</v>
       </c>
@@ -2704,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="14">
         <v>5</v>
       </c>
@@ -2733,7 +2756,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="14">
         <v>6</v>
       </c>
@@ -2766,11 +2789,11 @@
       <c r="R47" s="15"/>
       <c r="S47" s="17"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" thickBot="1">
       <c r="A48" s="1">
         <v>7</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="50">
         <v>2</v>
       </c>
       <c r="C48" s="2">
@@ -2782,10 +2805,10 @@
       <c r="E48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="40"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -2799,11 +2822,13 @@
       <c r="R48" s="15"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" thickBot="1">
       <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="50">
+        <v>2</v>
+      </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
@@ -2832,7 +2857,7 @@
       <c r="R49" s="15"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="43.5">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2861,7 +2886,7 @@
       <c r="R50" s="15"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="43.5">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -2890,7 +2915,7 @@
       <c r="R51" s="15"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="43.5">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2912,7 +2937,7 @@
       </c>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -2926,7 +2951,7 @@
       <c r="K53" s="20"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -2940,7 +2965,7 @@
       <c r="K54" s="20"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -2954,7 +2979,7 @@
       <c r="K55" s="20"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2968,7 +2993,7 @@
       <c r="K56" s="20"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2982,7 +3007,7 @@
       <c r="K57" s="20"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -2996,7 +3021,7 @@
       <c r="K58" s="20"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="43.5">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -3018,7 +3043,7 @@
       </c>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="58">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -3040,7 +3065,7 @@
       </c>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -3054,7 +3079,7 @@
       <c r="K61" s="20"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -3068,7 +3093,7 @@
       <c r="K62" s="20"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -3082,7 +3107,7 @@
       <c r="K63" s="20"/>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -3096,7 +3121,7 @@
       <c r="K64" s="20"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -3110,7 +3135,7 @@
       <c r="K65" s="20"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -3124,7 +3149,7 @@
       <c r="K66" s="20"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="43.5">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -3146,7 +3171,7 @@
       </c>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -3168,7 +3193,7 @@
       </c>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -3182,7 +3207,7 @@
       <c r="K69" s="20"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -3196,7 +3221,7 @@
       <c r="K70" s="20"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -3210,7 +3235,7 @@
       <c r="K71" s="20"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -3224,7 +3249,7 @@
       <c r="K72" s="20"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -3238,7 +3263,7 @@
       <c r="K73" s="20"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -3256,7 +3281,7 @@
       <c r="R74" s="15"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -3282,7 +3307,7 @@
       <c r="R75" s="15"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -3308,7 +3333,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -3334,26 +3359,26 @@
       <c r="R77" s="15"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41">
-        <v>1</v>
-      </c>
-      <c r="B78" s="42">
-        <v>1</v>
-      </c>
-      <c r="C78" s="43">
-        <v>1</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="43" t="s">
+    <row r="78" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A78" s="40">
+        <v>1</v>
+      </c>
+      <c r="B78" s="41">
+        <v>1</v>
+      </c>
+      <c r="C78" s="42">
+        <v>1</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G78" s="45"/>
+      <c r="G78" s="44"/>
       <c r="H78" s="15">
         <v>13</v>
       </c>
@@ -3382,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" thickBot="1">
       <c r="A79" s="14">
         <v>4</v>
       </c>
@@ -3398,7 +3423,7 @@
       <c r="E79" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="45" t="s">
         <v>88</v>
       </c>
       <c r="G79" s="34">
@@ -3414,26 +3439,26 @@
       <c r="R79" s="15"/>
       <c r="S79" s="17"/>
     </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41">
+    <row r="80" spans="1:19" ht="15" thickBot="1">
+      <c r="A80" s="40">
         <v>5</v>
       </c>
-      <c r="B80" s="42">
-        <v>1</v>
-      </c>
-      <c r="C80" s="43">
-        <v>1</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="43" t="s">
+      <c r="B80" s="41">
+        <v>1</v>
+      </c>
+      <c r="C80" s="42">
+        <v>1</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G80" s="45"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
@@ -3444,7 +3469,7 @@
       <c r="R80" s="15"/>
       <c r="S80" s="17"/>
     </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="29">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -3470,7 +3495,7 @@
       <c r="R81" s="15"/>
       <c r="S81" s="17"/>
     </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -3496,7 +3521,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="17"/>
     </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -3522,7 +3547,7 @@
       <c r="R83" s="15"/>
       <c r="S83" s="17"/>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -3548,7 +3573,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="17"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -3574,7 +3599,7 @@
       <c r="R85" s="15"/>
       <c r="S85" s="17"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -3600,7 +3625,7 @@
       <c r="R86" s="15"/>
       <c r="S86" s="17"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -3626,7 +3651,7 @@
       <c r="R87" s="15"/>
       <c r="S87" s="17"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -3652,7 +3677,7 @@
       <c r="R88" s="15"/>
       <c r="S88" s="17"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -3678,7 +3703,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="17"/>
     </row>
-    <row r="90" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="43.5">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -3704,7 +3729,7 @@
       <c r="R90" s="15"/>
       <c r="S90" s="17"/>
     </row>
-    <row r="91" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="44" thickBot="1">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -3730,26 +3755,26 @@
       <c r="R91" s="15"/>
       <c r="S91" s="17"/>
     </row>
-    <row r="92" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="41">
-        <v>1</v>
-      </c>
-      <c r="B92" s="42">
-        <v>1</v>
-      </c>
-      <c r="C92" s="43">
-        <v>1</v>
-      </c>
-      <c r="D92" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="43" t="s">
+    <row r="92" spans="1:19" ht="44" thickBot="1">
+      <c r="A92" s="40">
+        <v>1</v>
+      </c>
+      <c r="B92" s="41">
+        <v>1</v>
+      </c>
+      <c r="C92" s="42">
+        <v>1</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G92" s="45"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="15">
         <v>14</v>
       </c>
@@ -3778,26 +3803,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="41">
+    <row r="93" spans="1:19" ht="15" thickBot="1">
+      <c r="A93" s="40">
         <v>4</v>
       </c>
-      <c r="B93" s="47">
+      <c r="B93" s="46">
         <v>2</v>
       </c>
-      <c r="C93" s="43">
-        <v>1</v>
-      </c>
-      <c r="D93" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E93" s="48" t="s">
+      <c r="C93" s="42">
+        <v>1</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F93" s="49" t="s">
+      <c r="F93" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G93" s="50">
+      <c r="G93" s="49">
         <v>12140</v>
       </c>
       <c r="H93" s="15"/>
@@ -3810,26 +3835,26 @@
       <c r="R93" s="15"/>
       <c r="S93" s="17"/>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="41">
+    <row r="94" spans="1:19" ht="15" thickBot="1">
+      <c r="A94" s="40">
         <v>5</v>
       </c>
-      <c r="B94" s="42">
-        <v>1</v>
-      </c>
-      <c r="C94" s="43">
-        <v>1</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="43" t="s">
+      <c r="B94" s="41">
+        <v>1</v>
+      </c>
+      <c r="C94" s="42">
+        <v>1</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="45"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -3840,7 +3865,7 @@
       <c r="R94" s="15"/>
       <c r="S94" s="17"/>
     </row>
-    <row r="95" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="43.5">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -3866,7 +3891,7 @@
       <c r="R95" s="15"/>
       <c r="S95" s="17"/>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="43.5">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -3892,7 +3917,7 @@
       <c r="R96" s="15"/>
       <c r="S96" s="17"/>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="43.5">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -3918,7 +3943,7 @@
       <c r="R97" s="15"/>
       <c r="S97" s="17"/>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="43.5">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -3944,7 +3969,7 @@
       <c r="R98" s="15"/>
       <c r="S98" s="17"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -3970,7 +3995,7 @@
       <c r="R99" s="15"/>
       <c r="S99" s="17"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -3996,7 +4021,7 @@
       <c r="R100" s="15"/>
       <c r="S100" s="17"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -4022,7 +4047,7 @@
       <c r="R101" s="15"/>
       <c r="S101" s="17"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -4048,7 +4073,7 @@
       <c r="R102" s="15"/>
       <c r="S102" s="17"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -4074,7 +4099,7 @@
       <c r="R103" s="15"/>
       <c r="S103" s="17"/>
     </row>
-    <row r="104" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="44" thickBot="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
